--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Myoc-Fzd1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Myoc-Fzd1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,13 +85,13 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Myoc</t>
+  </si>
+  <si>
+    <t>Fzd1</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Myoc</t>
-  </si>
-  <si>
-    <t>Fzd1</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,31 +522,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
         <v>24</v>
-      </c>
-      <c r="C2" t="s">
-        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.9392963333333334</v>
+        <v>0.2439023333333333</v>
       </c>
       <c r="H2">
-        <v>2.817889</v>
+        <v>0.731707</v>
       </c>
       <c r="I2">
-        <v>0.02351740654579802</v>
+        <v>0.006368708152767561</v>
       </c>
       <c r="J2">
-        <v>0.02351740654579801</v>
+        <v>0.006368708152767561</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.316217666666667</v>
+        <v>1.089882</v>
       </c>
       <c r="N2">
-        <v>3.948653</v>
+        <v>3.269646</v>
       </c>
       <c r="O2">
-        <v>0.04607034270304907</v>
+        <v>0.03774844717592688</v>
       </c>
       <c r="P2">
-        <v>0.04607034270304908</v>
+        <v>0.03774844717592687</v>
       </c>
       <c r="Q2">
-        <v>1.236318428168556</v>
+        <v>0.265824762858</v>
       </c>
       <c r="R2">
-        <v>11.126865853517</v>
+        <v>2.392422865722</v>
       </c>
       <c r="S2">
-        <v>0.001083454979051844</v>
+        <v>0.0002404088432836412</v>
       </c>
       <c r="T2">
-        <v>0.001083454979051844</v>
+        <v>0.0002404088432836411</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,31 +584,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
         <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.9392963333333334</v>
+        <v>0.2439023333333333</v>
       </c>
       <c r="H3">
-        <v>2.817889</v>
+        <v>0.731707</v>
       </c>
       <c r="I3">
-        <v>0.02351740654579802</v>
+        <v>0.006368708152767561</v>
       </c>
       <c r="J3">
-        <v>0.02351740654579801</v>
+        <v>0.006368708152767561</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>72.700791</v>
       </c>
       <c r="O3">
-        <v>0.8482260548477534</v>
+        <v>0.8393391727152114</v>
       </c>
       <c r="P3">
-        <v>0.8482260548477534</v>
+        <v>0.8393391727152113</v>
       </c>
       <c r="Q3">
-        <v>22.76252880557767</v>
+        <v>5.910630853359667</v>
       </c>
       <c r="R3">
-        <v>204.862759250199</v>
+        <v>53.195677680237</v>
       </c>
       <c r="S3">
-        <v>0.01994807697459298</v>
+        <v>0.005345506232208547</v>
       </c>
       <c r="T3">
-        <v>0.01994807697459298</v>
+        <v>0.005345506232208547</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,31 +646,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
         <v>24</v>
-      </c>
-      <c r="C4" t="s">
-        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.9392963333333334</v>
+        <v>0.2439023333333333</v>
       </c>
       <c r="H4">
-        <v>2.817889</v>
+        <v>0.731707</v>
       </c>
       <c r="I4">
-        <v>0.02351740654579802</v>
+        <v>0.006368708152767561</v>
       </c>
       <c r="J4">
-        <v>0.02351740654579801</v>
+        <v>0.006368708152767561</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.784383</v>
+        <v>2.816943666666667</v>
       </c>
       <c r="N4">
-        <v>8.353149</v>
+        <v>8.450831000000001</v>
       </c>
       <c r="O4">
-        <v>0.09745916824791434</v>
+        <v>0.0975658366673901</v>
       </c>
       <c r="P4">
-        <v>0.09745916824791434</v>
+        <v>0.09756583666739009</v>
       </c>
       <c r="Q4">
-        <v>2.615360742495667</v>
+        <v>0.6870591331685556</v>
       </c>
       <c r="R4">
-        <v>23.538246682461</v>
+        <v>6.183532198517001</v>
       </c>
       <c r="S4">
-        <v>0.002291986881301531</v>
+        <v>0.0006213683394151957</v>
       </c>
       <c r="T4">
-        <v>0.002291986881301531</v>
+        <v>0.0006213683394151956</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,31 +708,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>25</v>
       </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.9392963333333334</v>
+        <v>0.2439023333333333</v>
       </c>
       <c r="H5">
-        <v>2.817889</v>
+        <v>0.731707</v>
       </c>
       <c r="I5">
-        <v>0.02351740654579802</v>
+        <v>0.006368708152767561</v>
       </c>
       <c r="J5">
-        <v>0.02351740654579801</v>
+        <v>0.006368708152767561</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.2355413333333333</v>
+        <v>0.7318113333333334</v>
       </c>
       <c r="N5">
-        <v>0.7066239999999999</v>
+        <v>2.195434</v>
       </c>
       <c r="O5">
-        <v>0.008244434201283157</v>
+        <v>0.0253465434414716</v>
       </c>
       <c r="P5">
-        <v>0.008244434201283159</v>
+        <v>0.0253465434414716</v>
       </c>
       <c r="Q5">
-        <v>0.2212431107484444</v>
+        <v>0.1784904917597778</v>
       </c>
       <c r="R5">
-        <v>1.991187996736</v>
+        <v>1.606414425838</v>
       </c>
       <c r="S5">
-        <v>0.0001938877108516575</v>
+        <v>0.0001614247378601774</v>
       </c>
       <c r="T5">
-        <v>0.0001938877108516575</v>
+        <v>0.0001614247378601774</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,10 +770,10 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
         <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
@@ -791,10 +791,10 @@
         <v>112.284579</v>
       </c>
       <c r="I6">
-        <v>0.937099400709813</v>
+        <v>0.9773142989029397</v>
       </c>
       <c r="J6">
-        <v>0.937099400709813</v>
+        <v>0.9773142989029399</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.316217666666667</v>
+        <v>1.089882</v>
       </c>
       <c r="N6">
-        <v>3.948653</v>
+        <v>3.269646</v>
       </c>
       <c r="O6">
-        <v>0.04607034270304907</v>
+        <v>0.03774844717592688</v>
       </c>
       <c r="P6">
-        <v>0.04607034270304908</v>
+        <v>0.03774844717592687</v>
       </c>
       <c r="Q6">
-        <v>49.26364885800966</v>
+        <v>40.792313843226</v>
       </c>
       <c r="R6">
-        <v>443.372839722087</v>
+        <v>367.130824589034</v>
       </c>
       <c r="S6">
-        <v>0.04317249053752299</v>
+        <v>0.03689209718641564</v>
       </c>
       <c r="T6">
-        <v>0.043172490537523</v>
+        <v>0.03689209718641563</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,10 +832,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
         <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
@@ -853,10 +853,10 @@
         <v>112.284579</v>
       </c>
       <c r="I7">
-        <v>0.937099400709813</v>
+        <v>0.9773142989029397</v>
       </c>
       <c r="J7">
-        <v>0.937099400709813</v>
+        <v>0.9773142989029399</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>72.700791</v>
       </c>
       <c r="O7">
-        <v>0.8482260548477534</v>
+        <v>0.8393391727152114</v>
       </c>
       <c r="P7">
-        <v>0.8482260548477534</v>
+        <v>0.8393391727152113</v>
       </c>
       <c r="Q7">
         <v>907.019745600221</v>
@@ -883,10 +883,10 @@
         <v>8163.177710401989</v>
       </c>
       <c r="S7">
-        <v>0.7948721276642786</v>
+        <v>0.8202981751239403</v>
       </c>
       <c r="T7">
-        <v>0.7948721276642786</v>
+        <v>0.8202981751239403</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,10 +894,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
         <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>22</v>
@@ -915,10 +915,10 @@
         <v>112.284579</v>
       </c>
       <c r="I8">
-        <v>0.937099400709813</v>
+        <v>0.9773142989029397</v>
       </c>
       <c r="J8">
-        <v>0.937099400709813</v>
+        <v>0.9773142989029399</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.784383</v>
+        <v>2.816943666666667</v>
       </c>
       <c r="N8">
-        <v>8.353149</v>
+        <v>8.450831000000001</v>
       </c>
       <c r="O8">
-        <v>0.09745916824791434</v>
+        <v>0.0975658366673901</v>
       </c>
       <c r="P8">
-        <v>0.09745916824791434</v>
+        <v>0.09756583666739009</v>
       </c>
       <c r="Q8">
-        <v>104.214424309919</v>
+        <v>105.4331112261277</v>
       </c>
       <c r="R8">
-        <v>937.9298187892711</v>
+        <v>948.8980010351492</v>
       </c>
       <c r="S8">
-        <v>0.09132892815879737</v>
+        <v>0.09535248725946908</v>
       </c>
       <c r="T8">
-        <v>0.09132892815879737</v>
+        <v>0.09535248725946908</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,13 +956,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>23</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -977,10 +977,10 @@
         <v>112.284579</v>
       </c>
       <c r="I9">
-        <v>0.937099400709813</v>
+        <v>0.9773142989029397</v>
       </c>
       <c r="J9">
-        <v>0.937099400709813</v>
+        <v>0.9773142989029399</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.2355413333333333</v>
+        <v>0.7318113333333334</v>
       </c>
       <c r="N9">
-        <v>0.7066239999999999</v>
+        <v>2.195434</v>
       </c>
       <c r="O9">
-        <v>0.008244434201283157</v>
+        <v>0.0253465434414716</v>
       </c>
       <c r="P9">
-        <v>0.008244434201283159</v>
+        <v>0.0253465434414716</v>
       </c>
       <c r="Q9">
-        <v>8.815886483477332</v>
+        <v>27.39037582358733</v>
       </c>
       <c r="R9">
-        <v>79.342978351296</v>
+        <v>246.513382412286</v>
       </c>
       <c r="S9">
-        <v>0.007725854349213932</v>
+        <v>0.02477153933311473</v>
       </c>
       <c r="T9">
-        <v>0.007725854349213934</v>
+        <v>0.02477153933311473</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,31 +1018,31 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
         <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>1.512001666666667</v>
+        <v>0.6248916666666666</v>
       </c>
       <c r="H10">
-        <v>4.536005</v>
+        <v>1.874675</v>
       </c>
       <c r="I10">
-        <v>0.03785637889880422</v>
+        <v>0.01631699294429263</v>
       </c>
       <c r="J10">
-        <v>0.03785637889880422</v>
+        <v>0.01631699294429263</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.316217666666667</v>
+        <v>1.089882</v>
       </c>
       <c r="N10">
-        <v>3.948653</v>
+        <v>3.269646</v>
       </c>
       <c r="O10">
-        <v>0.04607034270304907</v>
+        <v>0.03774844717592688</v>
       </c>
       <c r="P10">
-        <v>0.04607034270304908</v>
+        <v>0.03774844717592687</v>
       </c>
       <c r="Q10">
-        <v>1.990123305696111</v>
+        <v>0.6810581794499999</v>
       </c>
       <c r="R10">
-        <v>17.911109751265</v>
+        <v>6.129523615049999</v>
       </c>
       <c r="S10">
-        <v>0.001744056349364386</v>
+        <v>0.0006159411462276019</v>
       </c>
       <c r="T10">
-        <v>0.001744056349364386</v>
+        <v>0.0006159411462276018</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,31 +1080,31 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
         <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>1.512001666666667</v>
+        <v>0.6248916666666666</v>
       </c>
       <c r="H11">
-        <v>4.536005</v>
+        <v>1.874675</v>
       </c>
       <c r="I11">
-        <v>0.03785637889880422</v>
+        <v>0.01631699294429263</v>
       </c>
       <c r="J11">
-        <v>0.03785637889880422</v>
+        <v>0.01631699294429263</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>72.700791</v>
       </c>
       <c r="O11">
-        <v>0.8482260548477534</v>
+        <v>0.8393391727152114</v>
       </c>
       <c r="P11">
-        <v>0.8482260548477534</v>
+        <v>0.8393391727152113</v>
       </c>
       <c r="Q11">
-        <v>36.64123905332833</v>
+        <v>15.14337281865833</v>
       </c>
       <c r="R11">
-        <v>329.771151479955</v>
+        <v>136.290355367925</v>
       </c>
       <c r="S11">
-        <v>0.03211076692415445</v>
+        <v>0.01369549135906252</v>
       </c>
       <c r="T11">
-        <v>0.03211076692415445</v>
+        <v>0.01369549135906251</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,31 +1142,31 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
         <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>1.512001666666667</v>
+        <v>0.6248916666666666</v>
       </c>
       <c r="H12">
-        <v>4.536005</v>
+        <v>1.874675</v>
       </c>
       <c r="I12">
-        <v>0.03785637889880422</v>
+        <v>0.01631699294429263</v>
       </c>
       <c r="J12">
-        <v>0.03785637889880422</v>
+        <v>0.01631699294429263</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.784383</v>
+        <v>2.816943666666667</v>
       </c>
       <c r="N12">
-        <v>8.353149</v>
+        <v>8.450831000000001</v>
       </c>
       <c r="O12">
-        <v>0.09745916824791434</v>
+        <v>0.0975658366673901</v>
       </c>
       <c r="P12">
-        <v>0.09745916824791434</v>
+        <v>0.09756583666739009</v>
       </c>
       <c r="Q12">
-        <v>4.209991736638333</v>
+        <v>1.760284622769444</v>
       </c>
       <c r="R12">
-        <v>37.889925629745</v>
+        <v>15.842561604925</v>
       </c>
       <c r="S12">
-        <v>0.003689451200355355</v>
+        <v>0.001591981068505811</v>
       </c>
       <c r="T12">
-        <v>0.003689451200355355</v>
+        <v>0.001591981068505811</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,31 +1204,31 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>1.512001666666667</v>
+        <v>0.6248916666666666</v>
       </c>
       <c r="H13">
-        <v>4.536005</v>
+        <v>1.874675</v>
       </c>
       <c r="I13">
-        <v>0.03785637889880422</v>
+        <v>0.01631699294429263</v>
       </c>
       <c r="J13">
-        <v>0.03785637889880422</v>
+        <v>0.01631699294429263</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,276 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.2355413333333333</v>
+        <v>0.7318113333333334</v>
       </c>
       <c r="N13">
-        <v>0.7066239999999999</v>
+        <v>2.195434</v>
       </c>
       <c r="O13">
-        <v>0.008244434201283157</v>
+        <v>0.0253465434414716</v>
       </c>
       <c r="P13">
-        <v>0.008244434201283159</v>
+        <v>0.0253465434414716</v>
       </c>
       <c r="Q13">
-        <v>0.3561388885688888</v>
+        <v>0.4573028037722222</v>
       </c>
       <c r="R13">
-        <v>3.20524999712</v>
+        <v>4.11572523395</v>
       </c>
       <c r="S13">
-        <v>0.0003121044249300356</v>
+        <v>0.0004135793704966987</v>
       </c>
       <c r="T13">
-        <v>0.0003121044249300356</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G14">
-        <v>0.06098166666666666</v>
-      </c>
-      <c r="H14">
-        <v>0.182945</v>
-      </c>
-      <c r="I14">
-        <v>0.001526813845584769</v>
-      </c>
-      <c r="J14">
-        <v>0.001526813845584768</v>
-      </c>
-      <c r="K14">
-        <v>3</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="M14">
-        <v>1.316217666666667</v>
-      </c>
-      <c r="N14">
-        <v>3.948653</v>
-      </c>
-      <c r="O14">
-        <v>0.04607034270304907</v>
-      </c>
-      <c r="P14">
-        <v>0.04607034270304908</v>
-      </c>
-      <c r="Q14">
-        <v>0.08026514700944443</v>
-      </c>
-      <c r="R14">
-        <v>0.7223863230849999</v>
-      </c>
-      <c r="S14">
-        <v>7.034083710985053E-05</v>
-      </c>
-      <c r="T14">
-        <v>7.034083710985053E-05</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G15">
-        <v>0.06098166666666666</v>
-      </c>
-      <c r="H15">
-        <v>0.182945</v>
-      </c>
-      <c r="I15">
-        <v>0.001526813845584769</v>
-      </c>
-      <c r="J15">
-        <v>0.001526813845584768</v>
-      </c>
-      <c r="K15">
-        <v>3</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>24.233597</v>
-      </c>
-      <c r="N15">
-        <v>72.700791</v>
-      </c>
-      <c r="O15">
-        <v>0.8482260548477534</v>
-      </c>
-      <c r="P15">
-        <v>0.8482260548477534</v>
-      </c>
-      <c r="Q15">
-        <v>1.477805134388333</v>
-      </c>
-      <c r="R15">
-        <v>13.300246209495</v>
-      </c>
-      <c r="S15">
-        <v>0.001295083284727295</v>
-      </c>
-      <c r="T15">
-        <v>0.001295083284727295</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G16">
-        <v>0.06098166666666666</v>
-      </c>
-      <c r="H16">
-        <v>0.182945</v>
-      </c>
-      <c r="I16">
-        <v>0.001526813845584769</v>
-      </c>
-      <c r="J16">
-        <v>0.001526813845584768</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>2.784383</v>
-      </c>
-      <c r="N16">
-        <v>8.353149</v>
-      </c>
-      <c r="O16">
-        <v>0.09745916824791434</v>
-      </c>
-      <c r="P16">
-        <v>0.09745916824791434</v>
-      </c>
-      <c r="Q16">
-        <v>0.1697963159783333</v>
-      </c>
-      <c r="R16">
-        <v>1.528166843805</v>
-      </c>
-      <c r="S16">
-        <v>0.0001488020074600911</v>
-      </c>
-      <c r="T16">
-        <v>0.000148802007460091</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G17">
-        <v>0.06098166666666666</v>
-      </c>
-      <c r="H17">
-        <v>0.182945</v>
-      </c>
-      <c r="I17">
-        <v>0.001526813845584769</v>
-      </c>
-      <c r="J17">
-        <v>0.001526813845584768</v>
-      </c>
-      <c r="K17">
-        <v>3</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>0.2355413333333333</v>
-      </c>
-      <c r="N17">
-        <v>0.7066239999999999</v>
-      </c>
-      <c r="O17">
-        <v>0.008244434201283157</v>
-      </c>
-      <c r="P17">
-        <v>0.008244434201283159</v>
-      </c>
-      <c r="Q17">
-        <v>0.01436370307555555</v>
-      </c>
-      <c r="R17">
-        <v>0.12927332768</v>
-      </c>
-      <c r="S17">
-        <v>1.258771628753173E-05</v>
-      </c>
-      <c r="T17">
-        <v>1.258771628753173E-05</v>
+        <v>0.0004135793704966987</v>
       </c>
     </row>
   </sheetData>
